--- a/data/1000mProgressv2.xlsx
+++ b/data/1000mProgressv2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c6047bb88935478/Documents/GitHub/phillongworth.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="13_ncr:1_{4C98DF0E-1A9F-4D1E-8CF7-90BDB97BB963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D73383EE-BE3A-40E3-B4BE-B45386E06660}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="13_ncr:1_{4C98DF0E-1A9F-4D1E-8CF7-90BDB97BB963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DD64368-33EC-48D8-ADC3-B07DA62900EF}"/>
   <bookViews>
-    <workbookView xWindow="-18276" yWindow="432" windowWidth="17280" windowHeight="10800" xr2:uid="{A26A407F-7D9C-4DF8-BC8F-7B9BCBDAC91F}"/>
+    <workbookView xWindow="-18624" yWindow="84" windowWidth="17280" windowHeight="10800" xr2:uid="{A26A407F-7D9C-4DF8-BC8F-7B9BCBDAC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="To update" sheetId="2" r:id="rId1"/>
@@ -703,7 +703,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1120,11 +1120,26 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="4">
+        <v>45713</v>
+      </c>
+      <c r="E9">
+        <v>1008</v>
+      </c>
+      <c r="G9" s="6">
+        <v>21.44</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1426</v>
+      </c>
+      <c r="J9" s="6">
+        <f>J8+Table1[[#This Row],[Dist (miles)]]</f>
+        <v>123.38111101169171</v>
+      </c>
+      <c r="K9" s="2">
+        <f>K8+Table1[[#This Row],[Elv (feet)]]</f>
+        <v>11012.897637795275</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="4"/>
@@ -1771,12 +1786,12 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5">
         <f>SUBTOTAL(109,Table1[Dist (miles)])</f>
-        <v>101.94111101169172</v>
+        <v>123.38111101169171</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5">
         <f>SUBTOTAL(109,Table1[Elv (feet)])</f>
-        <v>9586.8976377952749</v>
+        <v>11012.897637795275</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>

--- a/data/1000mProgressv2.xlsx
+++ b/data/1000mProgressv2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c6047bb88935478/Documents/GitHub/phillongworth.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="364" documentId="13_ncr:1_{4C98DF0E-1A9F-4D1E-8CF7-90BDB97BB963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DD64368-33EC-48D8-ADC3-B07DA62900EF}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="13_ncr:1_{4C98DF0E-1A9F-4D1E-8CF7-90BDB97BB963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E352805E-AA21-450D-92B0-E60BC761B1EB}"/>
   <bookViews>
-    <workbookView xWindow="-18624" yWindow="84" windowWidth="17280" windowHeight="10800" xr2:uid="{A26A407F-7D9C-4DF8-BC8F-7B9BCBDAC91F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A26A407F-7D9C-4DF8-BC8F-7B9BCBDAC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="To update" sheetId="2" r:id="rId1"/>
@@ -59,15 +59,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Week commencing</t>
   </si>
   <si>
     <t>veloviewer.com</t>
-  </si>
-  <si>
-    <t>When</t>
   </si>
   <si>
     <t>Type</t>
@@ -77,9 +74,6 @@
   </si>
   <si>
     <t>Gear</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Dist mi</t>
@@ -92,12 +86,6 @@
   </si>
   <si>
     <t>Merlin</t>
-  </si>
-  <si>
-    <t>Dist (miles)</t>
-  </si>
-  <si>
-    <t>Elv (feet)</t>
   </si>
   <si>
     <t>Planned miles</t>
@@ -152,6 +140,21 @@
   </si>
   <si>
     <t>Tot feet</t>
+  </si>
+  <si>
+    <t>Ride Name</t>
+  </si>
+  <si>
+    <t>Elevation Gain</t>
+  </si>
+  <si>
+    <t>Dist ance</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -233,7 +236,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -245,20 +247,26 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -295,7 +303,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -318,51 +326,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C33CDB7-9962-4FF0-8466-58FFB9D6287A}" name="Table1" displayName="Table1" ref="A1:K100" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:K100" xr:uid="{3C33CDB7-9962-4FF0-8466-58FFB9D6287A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C33CDB7-9962-4FF0-8466-58FFB9D6287A}" name="Table1" displayName="Table1" ref="A1:L100" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:L100" xr:uid="{3C33CDB7-9962-4FF0-8466-58FFB9D6287A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
     <sortCondition ref="E1:E5"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F018E7E8-F478-4C2D-B52C-0B5C85D3129F}" name="When" dataDxfId="9"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{F018E7E8-F478-4C2D-B52C-0B5C85D3129F}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{1101E747-C3D9-4131-8F20-8931C2FCF7CF}" name="Type"/>
     <tableColumn id="3" xr3:uid="{31F23CF9-22F3-4B46-A97C-B264219EB4C3}" name="Sport Type"/>
     <tableColumn id="4" xr3:uid="{5076274C-A0A8-4CEE-A320-5F4FF05DFFB1}" name="Gear"/>
-    <tableColumn id="5" xr3:uid="{80211AFC-9813-4AB9-81AF-D505C00C277E}" name="Name"/>
+    <tableColumn id="5" xr3:uid="{80211AFC-9813-4AB9-81AF-D505C00C277E}" name="Ride Name"/>
     <tableColumn id="6" xr3:uid="{962F8E50-7DAE-4934-B9E9-C1C8D6F2CCE3}" name="Dist mi"/>
-    <tableColumn id="7" xr3:uid="{70847DCA-CC3D-4031-8C22-F1C0665521DE}" name="Dist (miles)" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{70847DCA-CC3D-4031-8C22-F1C0665521DE}" name="Dist ance" dataDxfId="9">
       <calculatedColumnFormula>CONVERT(F2,"m","mi")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{F4E3613D-C261-435A-851F-90AC0685FB0D}" name="Elv ft"/>
-    <tableColumn id="9" xr3:uid="{1BE532E9-3E15-4CD7-8B94-2D3097057AA7}" name="Elv (feet)" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{1BE532E9-3E15-4CD7-8B94-2D3097057AA7}" name="Elevation Gain" dataDxfId="8">
       <calculatedColumnFormula>CONVERT(H2,"m","ft")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{882A6F0D-44E8-4819-8573-19F54CECEA54}" name="Dist (cumulative)"/>
     <tableColumn id="14" xr3:uid="{BE1A5A04-F6EB-4BB2-AB77-C5AA53F7CDFD}" name="Feet (cumulative)"/>
+    <tableColumn id="10" xr3:uid="{50A643CC-4E3C-4E80-8365-9480623FF7B7}" name="Column1" dataDxfId="1">
+      <calculatedColumnFormula>SUMIFS(G:G, A:A, "&gt;="&amp;WEEKNUM(A2)*7-7, A:A, "&lt;"&amp;WEEKNUM(A2)*7)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6733B22C-8C56-4CA9-A17F-F1BCB616C3D7}" name="Table2" displayName="Table2" ref="A1:K54" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6733B22C-8C56-4CA9-A17F-F1BCB616C3D7}" name="Table2" displayName="Table2" ref="A1:K54" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:K54" xr:uid="{6733B22C-8C56-4CA9-A17F-F1BCB616C3D7}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F31673F5-14DC-4F42-9006-2F94777239F5}" name="Week commencing" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F31673F5-14DC-4F42-9006-2F94777239F5}" name="Week commencing" dataDxfId="6">
       <calculatedColumnFormula>7+A1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{512D2C8A-F18C-4F98-809D-D85828DFB895}" name="Week no"/>
-    <tableColumn id="11" xr3:uid="{C5DB63B4-CA27-4CD5-9457-234F37536383}" name="Number of rides" dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{C5DB63B4-CA27-4CD5-9457-234F37536383}" name="Number of rides" dataDxfId="5">
       <calculatedColumnFormula>COUNTIF('To update'!N2:N10,"="&amp;B2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{D4A0D4AB-97ED-4112-B5CB-06508C281FE8}" name="Planned miles"/>
     <tableColumn id="4" xr3:uid="{EAC6E893-F486-42BC-82B8-06BAD98BEEDB}" name="Cumulative miles">
       <calculatedColumnFormula>E1+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FB8AB5B3-A130-49D3-928F-B7202521E21C}" name="Actual miles (week)" dataDxfId="3">
-      <calculatedColumnFormula>N2</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{FB8AB5B3-A130-49D3-928F-B7202521E21C}" name="Actual miles (week)" dataDxfId="0">
+      <calculatedColumnFormula>SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E880E3D5-CE6B-49FC-A937-540C6B244EEC}" name="Actual miles (cumulative)" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{E880E3D5-CE6B-49FC-A937-540C6B244EEC}" name="Actual miles (cumulative)" dataDxfId="4">
       <calculatedColumnFormula>'To update'!J2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{874445AB-3682-429E-B15A-EC189D86D12D}" name="Planned ft">
@@ -371,10 +382,10 @@
     <tableColumn id="8" xr3:uid="{4DA5F37D-1FBD-4674-AB4C-7EEA73A9C224}" name="Cumulative ft">
       <calculatedColumnFormula>I1+H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A602CACD-113B-4AA5-9186-99196F898353}" name="Actual ft (week)" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{A602CACD-113B-4AA5-9186-99196F898353}" name="Actual ft (week)" dataDxfId="3">
       <calculatedColumnFormula>SUMIF('To update'!$N$2:$N$100, B2, 'To update'!$I$2:$I$100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7F60711F-AD64-4007-8432-6EDF243B9B9C}" name="Actual ft (cumulative)" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{7F60711F-AD64-4007-8432-6EDF243B9B9C}" name="Actual ft (cumulative)" dataDxfId="2">
       <calculatedColumnFormula>'To update'!K2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -701,14 +712,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32516192-437D-4BCA-AAA6-A1C9DF4AFE1A}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8:K9"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
@@ -716,65 +727,68 @@
     <col min="10" max="11" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="29.4" thickBot="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="29.4" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>16</v>
+      <c r="L1" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="N1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1">
+      <c r="A2" s="1">
+        <v>45672.394525462965</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1">
-      <c r="A2" s="4">
-        <v>45672.394525462965</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1001</v>
@@ -782,7 +796,7 @@
       <c r="F2">
         <v>25592.6</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f>CONVERT(F2,"m","mi")</f>
         <v>15.902504374453194</v>
       </c>
@@ -793,47 +807,54 @@
         <f>CONVERT(H2,"m","ft")</f>
         <v>1348.4251968503936</v>
       </c>
-      <c r="J2" s="6">
-        <f>Table1[[#This Row],[Dist (miles)]]</f>
+      <c r="J2" s="5">
+        <f>Table1[[#This Row],[Dist ance]]</f>
         <v>15.902504374453194</v>
       </c>
       <c r="K2" s="2">
-        <f>Table1[[#This Row],[Elv (feet)]]</f>
+        <f>Table1[[#This Row],[Elevation Gain]]</f>
         <v>1348.4251968503936</v>
       </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L33" si="0">SUMIFS(G:G, A:A, "&gt;="&amp;WEEKNUM(A2)*7-7, A:A, "&lt;"&amp;WEEKNUM(A2)*7)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" ref="M2:M14" ca="1" si="1">SUMIFS(G:G, A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((N2)-1)*7, A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(N2)*7)</f>
+        <v>0</v>
+      </c>
       <c r="N2">
-        <f>WEEKNUM(Table1[[#This Row],[When]],2)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <f>N2</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" cm="1">
-        <f t="array" ref="P2:P7">_xlfn.UNIQUE(N2:N100)</f>
-        <v>3</v>
-      </c>
-      <c r="Q2" s="9">
+        <f t="array" ref="P2:P16">_xlfn.UNIQUE(N2:N100)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="8">
         <f>SUMIF($N$2:$N$10, P2, $G$2:$G$10)</f>
-        <v>27.539544062673983</v>
-      </c>
-      <c r="R2" s="9">
+        <v>15.902504374453194</v>
+      </c>
+      <c r="R2" s="8">
         <f>SUMIF($N$2:$N$10, P2, $I$2:$I$10)</f>
-        <v>2260.4986876640419</v>
+        <v>1348.4251968503936</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>45674.343009259261</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1002</v>
@@ -841,7 +862,7 @@
       <c r="F3">
         <v>18728</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>CONVERT(F3,"m","mi")</f>
         <v>11.63703968822079</v>
       </c>
@@ -852,46 +873,53 @@
         <f>CONVERT(H3,"m","ft")</f>
         <v>912.07349081364828</v>
       </c>
-      <c r="J3" s="6">
-        <f>J2+Table1[[#This Row],[Dist (miles)]]</f>
+      <c r="J3" s="5">
+        <f>J2+Table1[[#This Row],[Dist ance]]</f>
         <v>27.539544062673983</v>
       </c>
       <c r="K3" s="2">
-        <f>K2+Table1[[#This Row],[Elv (feet)]]</f>
+        <f>K2+Table1[[#This Row],[Elevation Gain]]</f>
         <v>2260.4986876640419</v>
       </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f ca="1">SUMIFS(G:G, A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((N3)-1)*7, A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(N3)*7)</f>
+        <v>0</v>
+      </c>
       <c r="N3">
-        <f>WEEKNUM(Table1[[#This Row],[When]],2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O8" si="0">N3</f>
-        <v>3</v>
+        <f t="shared" ref="O3:O8" si="2">N3</f>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="9">
-        <f t="shared" ref="Q3:Q5" si="1">SUMIF($N$2:$N$10, P3, $G$2:$G$10)</f>
-        <v>11.517115048118985</v>
-      </c>
-      <c r="R3" s="9">
-        <f t="shared" ref="R3:R8" si="2">SUMIF($N$2:$N$10, P3, $I$2:$I$10)</f>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q5" si="3">SUMIF($N$2:$N$10, P3, $G$2:$G$10)</f>
+        <v>11.63703968822079</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" ref="R3:R8" si="4">SUMIF($N$2:$N$10, P3, $I$2:$I$10)</f>
         <v>912.07349081364828</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>45678.342546296299</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1003</v>
@@ -899,7 +927,7 @@
       <c r="F4">
         <v>18535</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>CONVERT(F4,"m","mi")</f>
         <v>11.517115048118985</v>
       </c>
@@ -910,46 +938,53 @@
         <f>CONVERT(H4,"m","ft")</f>
         <v>912.07349081364828</v>
       </c>
-      <c r="J4" s="6">
-        <f>J3+Table1[[#This Row],[Dist (miles)]]</f>
+      <c r="J4" s="5">
+        <f>J3+Table1[[#This Row],[Dist ance]]</f>
         <v>39.056659110792964</v>
       </c>
       <c r="K4" s="2">
-        <f>K3+Table1[[#This Row],[Elv (feet)]]</f>
+        <f>K3+Table1[[#This Row],[Elevation Gain]]</f>
         <v>3172.5721784776902</v>
       </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>39.056659110792964</v>
+      </c>
       <c r="N4">
-        <f>WEEKNUM(Table1[[#This Row],[When]],2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="9">
-        <f t="shared" si="1"/>
-        <v>31.11445190089875</v>
-      </c>
-      <c r="R4" s="9">
-        <f t="shared" si="2"/>
-        <v>2676.3254593175852</v>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="3"/>
+        <v>11.517115048118985</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" si="4"/>
+        <v>912.07349081364828</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>45691.380266203705</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>1004</v>
@@ -957,7 +992,7 @@
       <c r="F5">
         <v>24453.1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>CONVERT(F5,"m","mi")</f>
         <v>15.194451900898752</v>
       </c>
@@ -968,833 +1003,1242 @@
         <f>CONVERT(H5,"m","ft")</f>
         <v>1396.3254593175852</v>
       </c>
-      <c r="J5" s="6">
-        <f>J4+Table1[[#This Row],[Dist (miles)]]</f>
+      <c r="J5" s="5">
+        <f>J4+Table1[[#This Row],[Dist ance]]</f>
         <v>54.251111011691719</v>
       </c>
       <c r="K5" s="2">
-        <f>K4+Table1[[#This Row],[Elv (feet)]]</f>
+        <f>K4+Table1[[#This Row],[Elevation Gain]]</f>
         <v>4568.8976377952749</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N5">
-        <f>WEEKNUM(Table1[[#This Row],[When]],2)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="3"/>
+        <v>15.194451900898752</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" si="4"/>
+        <v>1396.3254593175852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1">
+      <c r="A6" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="Q5" s="9">
-        <f t="shared" si="1"/>
-        <v>15.1</v>
-      </c>
-      <c r="R5" s="9">
-        <f t="shared" si="2"/>
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1">
-      <c r="A6" s="4">
-        <v>45695</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="E6">
         <v>1005</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>15.92</v>
       </c>
       <c r="I6" s="2">
         <v>1280</v>
       </c>
-      <c r="J6" s="6">
-        <f>J5+Table1[[#This Row],[Dist (miles)]]</f>
+      <c r="J6" s="5">
+        <f>J5+Table1[[#This Row],[Dist ance]]</f>
         <v>70.171111011691721</v>
       </c>
       <c r="K6" s="2">
-        <f>K5+Table1[[#This Row],[Elv (feet)]]</f>
+        <f>K5+Table1[[#This Row],[Elevation Gain]]</f>
         <v>5848.8976377952749</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.194451900898752</v>
+      </c>
       <c r="N6">
-        <f>WEEKNUM(Table1[[#This Row],[When]],2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="9">
-        <f t="shared" ref="Q6" si="3">SUMIF($N$2:$N$10, P6, $G$2:$G$10)</f>
-        <v>16.670000000000002</v>
-      </c>
-      <c r="R6" s="9">
-        <f t="shared" ref="R6" si="4">SUMIF($N$2:$N$10, P6, $I$2:$I$10)</f>
-        <v>2084</v>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" ref="Q6" si="5">SUMIF($N$2:$N$10, P6, $G$2:$G$10)</f>
+        <v>15.92</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" ref="R6" si="6">SUMIF($N$2:$N$10, P6, $I$2:$I$10)</f>
+        <v>1280</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" thickBot="1">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>45700</v>
       </c>
       <c r="E7">
         <v>1006</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>15.1</v>
       </c>
       <c r="I7" s="2">
         <v>1654</v>
       </c>
-      <c r="J7" s="6">
-        <f>J6+Table1[[#This Row],[Dist (miles)]]</f>
+      <c r="J7" s="5">
+        <f>J6+Table1[[#This Row],[Dist ance]]</f>
         <v>85.271111011691715</v>
       </c>
       <c r="K7" s="2">
-        <f>K6+Table1[[#This Row],[Elv (feet)]]</f>
+        <f>K6+Table1[[#This Row],[Elevation Gain]]</f>
         <v>7502.8976377952749</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.92</v>
+      </c>
       <c r="N7">
-        <f>WEEKNUM(Table1[[#This Row],[When]],2)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <f t="shared" ref="Q7:Q8" si="5">SUMIF($N$2:$N$10, P7, $G$2:$G$10)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" ref="Q7:Q8" si="7">SUMIF($N$2:$N$10, P7, $G$2:$G$10)</f>
+        <v>15.1</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="4"/>
+        <v>1654</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>45706</v>
       </c>
       <c r="E8">
         <v>1007</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>16.670000000000002</v>
       </c>
       <c r="I8" s="2">
         <v>2084</v>
       </c>
-      <c r="J8" s="6">
-        <f>J7+Table1[[#This Row],[Dist (miles)]]</f>
+      <c r="J8" s="5">
+        <f>J7+Table1[[#This Row],[Dist ance]]</f>
         <v>101.94111101169172</v>
       </c>
       <c r="K8" s="2">
-        <f>K7+Table1[[#This Row],[Elv (feet)]]</f>
+        <f>K7+Table1[[#This Row],[Elevation Gain]]</f>
         <v>9586.8976377952749</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>31.770000000000003</v>
+      </c>
       <c r="N8">
-        <f>WEEKNUM(Table1[[#This Row],[When]],2)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="7"/>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="4"/>
+        <v>2084</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>45713</v>
       </c>
       <c r="E9">
         <v>1008</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>21.44</v>
       </c>
       <c r="I9" s="2">
         <v>1426</v>
       </c>
-      <c r="J9" s="6">
-        <f>J8+Table1[[#This Row],[Dist (miles)]]</f>
+      <c r="J9" s="5">
+        <f>J8+Table1[[#This Row],[Dist ance]]</f>
         <v>123.38111101169171</v>
       </c>
       <c r="K9" s="2">
-        <f>K8+Table1[[#This Row],[Elv (feet)]]</f>
+        <f>K8+Table1[[#This Row],[Elevation Gain]]</f>
         <v>11012.897637795275</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.44</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="4"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E10">
+        <v>1009</v>
+      </c>
+      <c r="G10" s="5">
+        <v>9.41</v>
+      </c>
+      <c r="I10" s="2">
+        <v>111</v>
+      </c>
+      <c r="J10" s="5">
+        <f>J9+Table1[[#This Row],[Dist ance]]</f>
+        <v>132.79111101169173</v>
+      </c>
+      <c r="K10" s="2">
+        <f>K9+Table1[[#This Row],[Elevation Gain]]</f>
+        <v>11123.897637795275</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>29.68</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="1">
+        <v>45720</v>
+      </c>
+      <c r="E11">
+        <v>1010</v>
+      </c>
+      <c r="G11" s="5">
+        <v>20.27</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2315</v>
+      </c>
+      <c r="J11" s="5">
+        <f>J10+Table1[[#This Row],[Dist ance]]</f>
+        <v>153.06111101169174</v>
+      </c>
+      <c r="K11" s="2">
+        <f>K10+Table1[[#This Row],[Elevation Gain]]</f>
+        <v>13438.897637795275</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="4"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="5"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="2"/>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="4"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="5"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="2"/>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="4"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="5"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="2"/>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="4"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="5"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="2"/>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="4"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="5"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="G17" s="6"/>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12">
+      <c r="G17" s="5"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4"/>
-      <c r="G18" s="6"/>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12">
+      <c r="G18" s="5"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="G19" s="6"/>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12">
+      <c r="G19" s="5"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="4"/>
-      <c r="G20" s="6"/>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12">
+      <c r="G20" s="5"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="G21" s="6"/>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:12">
+      <c r="G21" s="5"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="4"/>
-      <c r="G22" s="6"/>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:12">
+      <c r="G22" s="5"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="4"/>
-      <c r="G23" s="6"/>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:12">
+      <c r="G23" s="5"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="4"/>
-      <c r="G24" s="6"/>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:12">
+      <c r="G24" s="5"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="4"/>
-      <c r="G25" s="6"/>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:12">
+      <c r="G25" s="5"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="4"/>
-      <c r="G26" s="6"/>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:12">
+      <c r="G26" s="5"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="4"/>
-      <c r="G27" s="6"/>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:12">
+      <c r="G27" s="5"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="4"/>
-      <c r="G28" s="6"/>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12">
+      <c r="G28" s="5"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="4"/>
-      <c r="G29" s="6"/>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:12">
+      <c r="G29" s="5"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="4"/>
-      <c r="G30" s="6"/>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:12">
+      <c r="G30" s="5"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="4"/>
-      <c r="G31" s="6"/>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:12">
+      <c r="G31" s="5"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="4"/>
-      <c r="G32" s="6"/>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:12">
+      <c r="G32" s="5"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="4"/>
-      <c r="G33" s="6"/>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12">
+      <c r="G33" s="5"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="4"/>
-      <c r="G34" s="6"/>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12">
+      <c r="G34" s="5"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="4"/>
-      <c r="G35" s="6"/>
+      <c r="L34">
+        <f t="shared" ref="L34:L65" si="8">SUMIFS(G:G, A:A, "&gt;="&amp;WEEKNUM(A34)*7-7, A:A, "&lt;"&amp;WEEKNUM(A34)*7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:12">
+      <c r="G35" s="5"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="4"/>
-      <c r="G36" s="6"/>
+      <c r="L35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12">
+      <c r="G36" s="5"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="6"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="4"/>
-      <c r="G37" s="6"/>
+      <c r="L36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:12">
+      <c r="G37" s="5"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="4"/>
-      <c r="G38" s="6"/>
+      <c r="L37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12">
+      <c r="G38" s="5"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="4"/>
-      <c r="G39" s="6"/>
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:12">
+      <c r="G39" s="5"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="4"/>
-      <c r="G40" s="6"/>
+      <c r="L39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:12">
+      <c r="G40" s="5"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="6"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="4"/>
-      <c r="G41" s="6"/>
+      <c r="L40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12">
+      <c r="G41" s="5"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="6"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="4"/>
-      <c r="G42" s="6"/>
+      <c r="L41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12">
+      <c r="G42" s="5"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="6"/>
+      <c r="J42" s="5"/>
       <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="4"/>
-      <c r="G43" s="6"/>
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:12">
+      <c r="G43" s="5"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="6"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="4"/>
-      <c r="G44" s="6"/>
+      <c r="L43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:12">
+      <c r="G44" s="5"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="6"/>
+      <c r="J44" s="5"/>
       <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="4"/>
-      <c r="G45" s="6"/>
+      <c r="L44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12">
+      <c r="G45" s="5"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="6"/>
+      <c r="J45" s="5"/>
       <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="4"/>
-      <c r="G46" s="6"/>
+      <c r="L45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:12">
+      <c r="G46" s="5"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="6"/>
+      <c r="J46" s="5"/>
       <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="4"/>
-      <c r="G47" s="6"/>
+      <c r="L46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12">
+      <c r="G47" s="5"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="6"/>
+      <c r="J47" s="5"/>
       <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="4"/>
-      <c r="G48" s="6"/>
+      <c r="L47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:12">
+      <c r="G48" s="5"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="6"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="4"/>
-      <c r="G49" s="6"/>
+      <c r="L48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:12">
+      <c r="G49" s="5"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="6"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="4"/>
-      <c r="G50" s="6"/>
+      <c r="L49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:12">
+      <c r="G50" s="5"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="6"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="4"/>
-      <c r="G51" s="6"/>
+      <c r="L50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12">
+      <c r="G51" s="5"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="6"/>
+      <c r="J51" s="5"/>
       <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="4"/>
-      <c r="G52" s="6"/>
+      <c r="L51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:12">
+      <c r="G52" s="5"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="6"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="4"/>
-      <c r="G53" s="6"/>
+      <c r="L52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:12">
+      <c r="G53" s="5"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="4"/>
-      <c r="G54" s="6"/>
+      <c r="L53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:12">
+      <c r="G54" s="5"/>
       <c r="I54" s="2"/>
-      <c r="J54" s="6"/>
+      <c r="J54" s="5"/>
       <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="4"/>
-      <c r="G55" s="6"/>
+      <c r="L54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:12">
+      <c r="G55" s="5"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="6"/>
+      <c r="J55" s="5"/>
       <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="4"/>
-      <c r="G56" s="6"/>
+      <c r="L55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:12">
+      <c r="G56" s="5"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="6"/>
+      <c r="J56" s="5"/>
       <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="4"/>
-      <c r="G57" s="6"/>
+      <c r="L56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:12">
+      <c r="G57" s="5"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="6"/>
+      <c r="J57" s="5"/>
       <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="4"/>
-      <c r="G58" s="6"/>
+      <c r="L57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:12">
+      <c r="G58" s="5"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="6"/>
+      <c r="J58" s="5"/>
       <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="4"/>
-      <c r="G59" s="6"/>
+      <c r="L58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:12">
+      <c r="G59" s="5"/>
       <c r="I59" s="2"/>
-      <c r="J59" s="6"/>
+      <c r="J59" s="5"/>
       <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="4"/>
-      <c r="G60" s="6"/>
+      <c r="L59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:12">
+      <c r="G60" s="5"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="6"/>
+      <c r="J60" s="5"/>
       <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="4"/>
-      <c r="G61" s="6"/>
+      <c r="L60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:12">
+      <c r="G61" s="5"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="6"/>
+      <c r="J61" s="5"/>
       <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="4"/>
-      <c r="G62" s="6"/>
+      <c r="L61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:12">
+      <c r="G62" s="5"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="6"/>
+      <c r="J62" s="5"/>
       <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="4"/>
-      <c r="G63" s="6"/>
+      <c r="L62">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:12">
+      <c r="G63" s="5"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="6"/>
+      <c r="J63" s="5"/>
       <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="4"/>
-      <c r="G64" s="6"/>
+      <c r="L63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:12">
+      <c r="G64" s="5"/>
       <c r="I64" s="2"/>
-      <c r="J64" s="6"/>
+      <c r="J64" s="5"/>
       <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="4"/>
-      <c r="G65" s="6"/>
+      <c r="L64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:12">
+      <c r="G65" s="5"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="6"/>
+      <c r="J65" s="5"/>
       <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="4"/>
-      <c r="G66" s="6"/>
+      <c r="L65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:12">
+      <c r="G66" s="5"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="6"/>
+      <c r="J66" s="5"/>
       <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="4"/>
-      <c r="G67" s="6"/>
+      <c r="L66">
+        <f t="shared" ref="L66:L100" si="9">SUMIFS(G:G, A:A, "&gt;="&amp;WEEKNUM(A66)*7-7, A:A, "&lt;"&amp;WEEKNUM(A66)*7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:12">
+      <c r="G67" s="5"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="6"/>
+      <c r="J67" s="5"/>
       <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="4"/>
-      <c r="G68" s="6"/>
+      <c r="L67">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:12">
+      <c r="G68" s="5"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="6"/>
+      <c r="J68" s="5"/>
       <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="4"/>
-      <c r="G69" s="6"/>
+      <c r="L68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:12">
+      <c r="G69" s="5"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="6"/>
+      <c r="J69" s="5"/>
       <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="4"/>
-      <c r="G70" s="6"/>
+      <c r="L69">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:12">
+      <c r="G70" s="5"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="6"/>
+      <c r="J70" s="5"/>
       <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="4"/>
-      <c r="G71" s="6"/>
+      <c r="L70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:12">
+      <c r="G71" s="5"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="6"/>
+      <c r="J71" s="5"/>
       <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="4"/>
-      <c r="G72" s="6"/>
+      <c r="L71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:12">
+      <c r="G72" s="5"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="6"/>
+      <c r="J72" s="5"/>
       <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="4"/>
-      <c r="G73" s="6"/>
+      <c r="L72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:12">
+      <c r="G73" s="5"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="6"/>
+      <c r="J73" s="5"/>
       <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="4"/>
-      <c r="G74" s="6"/>
+      <c r="L73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:12">
+      <c r="G74" s="5"/>
       <c r="I74" s="2"/>
-      <c r="J74" s="6"/>
+      <c r="J74" s="5"/>
       <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="4"/>
-      <c r="G75" s="6"/>
+      <c r="L74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:12">
+      <c r="G75" s="5"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="6"/>
+      <c r="J75" s="5"/>
       <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="4"/>
-      <c r="G76" s="6"/>
+      <c r="L75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="7:12">
+      <c r="G76" s="5"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="6"/>
+      <c r="J76" s="5"/>
       <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="4"/>
-      <c r="G77" s="6"/>
+      <c r="L76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="7:12">
+      <c r="G77" s="5"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="6"/>
+      <c r="J77" s="5"/>
       <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="4"/>
-      <c r="G78" s="6"/>
+      <c r="L77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="7:12">
+      <c r="G78" s="5"/>
       <c r="I78" s="2"/>
-      <c r="J78" s="6"/>
+      <c r="J78" s="5"/>
       <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="4"/>
-      <c r="G79" s="6"/>
+      <c r="L78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="7:12">
+      <c r="G79" s="5"/>
       <c r="I79" s="2"/>
-      <c r="J79" s="6"/>
+      <c r="J79" s="5"/>
       <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="4"/>
-      <c r="G80" s="6"/>
+      <c r="L79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="7:12">
+      <c r="G80" s="5"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="6"/>
+      <c r="J80" s="5"/>
       <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="4"/>
-      <c r="G81" s="6"/>
+      <c r="L80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:12">
+      <c r="G81" s="5"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="6"/>
+      <c r="J81" s="5"/>
       <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="4"/>
-      <c r="G82" s="6"/>
+      <c r="L81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:12">
+      <c r="G82" s="5"/>
       <c r="I82" s="2"/>
-      <c r="J82" s="6"/>
+      <c r="J82" s="5"/>
       <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="4"/>
-      <c r="G83" s="6"/>
+      <c r="L82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:12">
+      <c r="G83" s="5"/>
       <c r="I83" s="2"/>
-      <c r="J83" s="6"/>
+      <c r="J83" s="5"/>
       <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="4"/>
-      <c r="G84" s="6"/>
+      <c r="L83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="7:12">
+      <c r="G84" s="5"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="6"/>
+      <c r="J84" s="5"/>
       <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="4"/>
-      <c r="G85" s="6"/>
+      <c r="L84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:12">
+      <c r="G85" s="5"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="6"/>
+      <c r="J85" s="5"/>
       <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="4"/>
-      <c r="G86" s="6"/>
+      <c r="L85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="7:12">
+      <c r="G86" s="5"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="6"/>
+      <c r="J86" s="5"/>
       <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="4"/>
-      <c r="G87" s="6"/>
+      <c r="L86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="7:12">
+      <c r="G87" s="5"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="6"/>
+      <c r="J87" s="5"/>
       <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="4"/>
-      <c r="G88" s="6"/>
+      <c r="L87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="7:12">
+      <c r="G88" s="5"/>
       <c r="I88" s="2"/>
-      <c r="J88" s="6"/>
+      <c r="J88" s="5"/>
       <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="4"/>
-      <c r="G89" s="6"/>
+      <c r="L88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="7:12">
+      <c r="G89" s="5"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="6"/>
+      <c r="J89" s="5"/>
       <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="4"/>
-      <c r="G90" s="6"/>
+      <c r="L89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="7:12">
+      <c r="G90" s="5"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="6"/>
+      <c r="J90" s="5"/>
       <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="4"/>
-      <c r="G91" s="6"/>
+      <c r="L90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="7:12">
+      <c r="G91" s="5"/>
       <c r="I91" s="2"/>
-      <c r="J91" s="6"/>
+      <c r="J91" s="5"/>
       <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="4"/>
-      <c r="G92" s="6"/>
+      <c r="L91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:12">
+      <c r="G92" s="5"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="6"/>
+      <c r="J92" s="5"/>
       <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="4"/>
-      <c r="G93" s="6"/>
+      <c r="L92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:12">
+      <c r="G93" s="5"/>
       <c r="I93" s="2"/>
-      <c r="J93" s="6"/>
+      <c r="J93" s="5"/>
       <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="4"/>
-      <c r="G94" s="6"/>
+      <c r="L93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="7:12">
+      <c r="G94" s="5"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="6"/>
+      <c r="J94" s="5"/>
       <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="4"/>
-      <c r="G95" s="6"/>
+      <c r="L94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="7:12">
+      <c r="G95" s="5"/>
       <c r="I95" s="2"/>
-      <c r="J95" s="6"/>
+      <c r="J95" s="5"/>
       <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="4"/>
-      <c r="G96" s="6"/>
+      <c r="L95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="7:12">
+      <c r="G96" s="5"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="6"/>
+      <c r="J96" s="5"/>
       <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="4"/>
-      <c r="G97" s="6"/>
+      <c r="L96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12">
+      <c r="G97" s="5"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="6"/>
+      <c r="J97" s="5"/>
       <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="4"/>
-      <c r="G98" s="6"/>
+      <c r="L97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12">
+      <c r="G98" s="5"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="6"/>
+      <c r="J98" s="5"/>
       <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="4"/>
-      <c r="G99" s="6"/>
+      <c r="L98">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12">
+      <c r="G99" s="5"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="6"/>
+      <c r="J99" s="5"/>
       <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="4"/>
-      <c r="G100" s="6"/>
+      <c r="L99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12">
+      <c r="G100" s="5"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="6"/>
+      <c r="J100" s="5"/>
       <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5">
-        <f>SUBTOTAL(109,Table1[Dist (miles)])</f>
-        <v>123.38111101169171</v>
-      </c>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5">
-        <f>SUBTOTAL(109,Table1[Elv (feet)])</f>
-        <v>11012.897637795275</v>
-      </c>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
+      <c r="L100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4">
+        <f>SUBTOTAL(109,Table1[Dist ance])</f>
+        <v>153.06111101169174</v>
+      </c>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4">
+        <f>SUBTOTAL(109,Table1[Elevation Gain])</f>
+        <v>13438.897637795275</v>
+      </c>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1814,7 +2258,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1824,59 +2268,59 @@
     <col min="18" max="18" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:21" s="7" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="5">
+        <f ca="1">G54</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="6">
-        <f>G54</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="T1" s="2">
         <f>K54</f>
-        <v>9586.8976377952749</v>
+        <v>10498.971128608924</v>
       </c>
       <c r="U1"/>
     </row>
@@ -1889,7 +2333,7 @@
       </c>
       <c r="C2">
         <f>COUNTIF('To update'!N2:N10,"="&amp;B2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1898,11 +2342,11 @@
         <f>D2</f>
         <v>10</v>
       </c>
-      <c r="F2" s="5">
-        <f>N2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>153.06111101169174</v>
+      </c>
+      <c r="G2" s="4">
         <v>0</v>
       </c>
       <c r="H2">
@@ -1915,14 +2359,14 @@
       </c>
       <c r="J2" s="2">
         <f>SUMIF('To update'!$N$2:$N$100, B2, 'To update'!$I$2:$I$100)</f>
-        <v>0</v>
+        <v>1348.4251968503936</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f>SUMIF('To update'!$N$2:$N$100, B2, 'To update'!$G$2:$G$100)</f>
-        <v>0</v>
+        <v>15.902504374453194</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1935,7 +2379,7 @@
       </c>
       <c r="C3">
         <f>COUNTIF('To update'!N3:N11,"="&amp;B3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1944,38 +2388,38 @@
         <f t="shared" ref="E3:E34" si="0">E2+D3</f>
         <v>20</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F54" si="1">N3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <f>G2+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>0</v>
+      <c r="F3" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>153.06111101169174</v>
+      </c>
+      <c r="G3" s="4">
+        <f ca="1">G2+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>153.06111101169174</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H54" si="2">D3*100</f>
+        <f t="shared" ref="H3:H54" si="1">D3*100</f>
         <v>1000</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I34" si="3">I2+H3</f>
+        <f t="shared" ref="I3:I34" si="2">I2+H3</f>
         <v>2000</v>
       </c>
       <c r="J3" s="2">
         <f>SUMIF('To update'!$N$2:$N$100, B3, 'To update'!$I$2:$I$100)</f>
-        <v>0</v>
+        <v>912.07349081364828</v>
       </c>
       <c r="K3" s="2">
         <f>K2+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
+        <v>912.07349081364828</v>
+      </c>
+      <c r="N3" s="4">
         <f>SUMIF('To update'!$N$2:$N$100, B3, 'To update'!$G$2:$G$100)</f>
-        <v>0</v>
+        <v>11.63703968822079</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A53" si="4">7+A3</f>
+        <f t="shared" ref="A4:A53" si="3">7+A3</f>
         <v>45676</v>
       </c>
       <c r="B4">
@@ -1983,7 +2427,7 @@
       </c>
       <c r="C4">
         <f>COUNTIF('To update'!N4:N12,"="&amp;B4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1992,42 +2436,42 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>27.539544062673983</v>
-      </c>
-      <c r="G4" s="5">
-        <f>G3+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>27.539544062673983</v>
+      <c r="F4" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>153.06111101169174</v>
+      </c>
+      <c r="G4" s="4">
+        <f ca="1">G3+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>306.12222202338347</v>
       </c>
       <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="J4" s="2">
         <f>O4</f>
-        <v>2260.4986876640419</v>
+        <v>1348.4251968503936</v>
       </c>
       <c r="K4" s="2">
         <f>K3+Table2[[#This Row],[Actual ft (week)]]</f>
         <v>2260.4986876640419</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f>'To update'!Q2</f>
-        <v>27.539544062673983</v>
-      </c>
-      <c r="O4" s="6">
+        <v>15.902504374453194</v>
+      </c>
+      <c r="O4" s="5">
         <f>'To update'!R2</f>
-        <v>2260.4986876640419</v>
+        <v>1348.4251968503936</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45683</v>
       </c>
       <c r="B5">
@@ -2035,7 +2479,7 @@
       </c>
       <c r="C5">
         <f>COUNTIF('To update'!N5:N13,"="&amp;B5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2044,42 +2488,42 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>11.517115048118985</v>
-      </c>
-      <c r="G5" s="5">
-        <f>G4+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>39.056659110792964</v>
+      <c r="F5" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>114.00445190089874</v>
+      </c>
+      <c r="G5" s="4">
+        <f ca="1">G4+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>420.12667392428222</v>
       </c>
       <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J5:J54" si="5">O5</f>
+        <f t="shared" ref="J5:J54" si="4">O5</f>
         <v>912.07349081364828</v>
       </c>
       <c r="K5" s="2">
         <f>K4+Table2[[#This Row],[Actual ft (week)]]</f>
         <v>3172.5721784776902</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>'To update'!Q3</f>
-        <v>11.517115048118985</v>
-      </c>
-      <c r="O5" s="6">
+        <v>11.63703968822079</v>
+      </c>
+      <c r="O5" s="5">
         <f>'To update'!R3</f>
         <v>912.07349081364828</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45690</v>
       </c>
       <c r="B6">
@@ -2087,7 +2531,7 @@
       </c>
       <c r="C6">
         <f>COUNTIF('To update'!N6:N14,"="&amp;B6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -2096,42 +2540,42 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>31.11445190089875</v>
-      </c>
-      <c r="G6" s="5">
-        <f>G5+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>70.171111011691721</v>
+      <c r="F6" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>114.00445190089874</v>
+      </c>
+      <c r="G6" s="4">
+        <f ca="1">G5+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>534.13112582518102</v>
       </c>
       <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="5"/>
-        <v>2676.3254593175852</v>
+        <f t="shared" si="4"/>
+        <v>912.07349081364828</v>
       </c>
       <c r="K6" s="2">
         <f>K5+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>5848.8976377952749</v>
-      </c>
-      <c r="N6" s="5">
+        <v>4084.6456692913384</v>
+      </c>
+      <c r="N6" s="4">
         <f>'To update'!Q4</f>
-        <v>31.11445190089875</v>
-      </c>
-      <c r="O6" s="6">
+        <v>11.517115048118985</v>
+      </c>
+      <c r="O6" s="5">
         <f>'To update'!R4</f>
-        <v>2676.3254593175852</v>
+        <v>912.07349081364828</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45697</v>
       </c>
       <c r="B7">
@@ -2139,7 +2583,7 @@
       </c>
       <c r="C7">
         <f>COUNTIF('To update'!N7:N15,"="&amp;B7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -2148,42 +2592,42 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>15.1</v>
-      </c>
-      <c r="G7" s="5">
-        <f>G6+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>85.271111011691715</v>
+      <c r="F7" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>98.809999999999988</v>
+      </c>
+      <c r="G7" s="4">
+        <f ca="1">G6+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>632.94112582518096</v>
       </c>
       <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="5"/>
-        <v>1654</v>
+        <f t="shared" si="4"/>
+        <v>1396.3254593175852</v>
       </c>
       <c r="K7" s="2">
         <f>K6+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>7502.8976377952749</v>
-      </c>
-      <c r="N7" s="5">
+        <v>5480.9711286089241</v>
+      </c>
+      <c r="N7" s="4">
         <f>'To update'!Q5</f>
-        <v>15.1</v>
-      </c>
-      <c r="O7" s="6">
+        <v>15.194451900898752</v>
+      </c>
+      <c r="O7" s="5">
         <f>'To update'!R5</f>
-        <v>1654</v>
+        <v>1396.3254593175852</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45704</v>
       </c>
       <c r="B8">
@@ -2191,7 +2635,7 @@
       </c>
       <c r="C8">
         <f>COUNTIF('To update'!N8:N16,"="&amp;B8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -2200,42 +2644,42 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>16.670000000000002</v>
-      </c>
-      <c r="G8" s="5">
-        <f>G7+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F8" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>82.89</v>
+      </c>
+      <c r="G8" s="4">
+        <f ca="1">G7+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>715.83112582518095</v>
       </c>
       <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
         <v>7000</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="5"/>
-        <v>2084</v>
+        <f t="shared" si="4"/>
+        <v>1280</v>
       </c>
       <c r="K8" s="2">
         <f>K7+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N8" s="5">
+        <v>6760.9711286089241</v>
+      </c>
+      <c r="N8" s="4">
         <f>'To update'!Q6</f>
-        <v>16.670000000000002</v>
-      </c>
-      <c r="O8" s="6">
+        <v>15.92</v>
+      </c>
+      <c r="O8" s="5">
         <f>'To update'!R6</f>
-        <v>2084</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45711</v>
       </c>
       <c r="B9">
@@ -2243,7 +2687,7 @@
       </c>
       <c r="C9">
         <f>COUNTIF('To update'!N9:N17,"="&amp;B9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -2252,42 +2696,42 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <f>G8+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F9" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>51.120000000000005</v>
+      </c>
+      <c r="G9" s="4">
+        <f ca="1">G8+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>766.95112582518095</v>
       </c>
       <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
         <v>8000</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1654</v>
       </c>
       <c r="K9" s="2">
         <f>K8+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N9" s="5">
+        <v>8414.9711286089241</v>
+      </c>
+      <c r="N9" s="4">
         <f>'To update'!Q7</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="O9" s="5">
         <f>'To update'!R7</f>
-        <v>0</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45718</v>
       </c>
       <c r="B10">
@@ -2295,7 +2739,7 @@
       </c>
       <c r="C10">
         <f>COUNTIF('To update'!N10:N18,"="&amp;B10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -2304,42 +2748,42 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <f>G9+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F10" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>29.68</v>
+      </c>
+      <c r="G10" s="4">
+        <f ca="1">G9+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
         <v>9000</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2084</v>
       </c>
       <c r="K10" s="2">
         <f>K9+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N10" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N10" s="4">
         <f>'To update'!Q8</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="O10" s="5">
         <f>'To update'!R8</f>
-        <v>0</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45725</v>
       </c>
       <c r="B11">
@@ -2347,7 +2791,7 @@
       </c>
       <c r="C11">
         <f>COUNTIF('To update'!N11:N19,"="&amp;B11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -2356,38 +2800,38 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <f>G10+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F11" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f ca="1">G10+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
         <f>K10+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N11" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N11" s="4">
         <f>'To update'!Q9</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45732</v>
       </c>
       <c r="B12">
@@ -2395,7 +2839,7 @@
       </c>
       <c r="C12">
         <f>COUNTIF('To update'!N12:N20,"="&amp;B12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2404,38 +2848,38 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <f>G11+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F12" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f ca="1">G11+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
         <v>11000</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
         <f>K11+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N12" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N12" s="4">
         <f>'To update'!Q10</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45739</v>
       </c>
       <c r="B13">
@@ -2443,7 +2887,7 @@
       </c>
       <c r="C13">
         <f>COUNTIF('To update'!N13:N21,"="&amp;B13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2452,38 +2896,38 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <f>G12+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F13" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f ca="1">G12+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
         <v>12000</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
         <f>K12+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N13" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N13" s="4">
         <f>'To update'!Q11</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45746</v>
       </c>
       <c r="B14">
@@ -2491,7 +2935,7 @@
       </c>
       <c r="C14">
         <f>COUNTIF('To update'!N14:N22,"="&amp;B14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -2500,38 +2944,38 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <f>G13+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F14" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f ca="1">G13+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H14">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
         <v>14000</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K14" s="2">
         <f>K13+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N14" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N14" s="4">
         <f>'To update'!Q12</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45753</v>
       </c>
       <c r="B15">
@@ -2539,7 +2983,7 @@
       </c>
       <c r="C15">
         <f>COUNTIF('To update'!N15:N23,"="&amp;B15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -2548,38 +2992,38 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <f>G14+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F15" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f ca="1">G14+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
         <v>16000</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K15" s="2">
         <f>K14+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N15" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N15" s="4">
         <f>'To update'!Q13</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45760</v>
       </c>
       <c r="B16">
@@ -2596,38 +3040,38 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <f>G15+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F16" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f ca="1">G15+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H16">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
         <v>18000</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K16" s="2">
         <f>K15+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N16" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N16" s="4">
         <f>'To update'!Q14</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45767</v>
       </c>
       <c r="B17">
@@ -2644,38 +3088,38 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <f>G16+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F17" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f ca="1">G16+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H17">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
         <v>20000</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17" s="2">
         <f>K16+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N17" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N17" s="4">
         <f>'To update'!Q15</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45774</v>
       </c>
       <c r="B18">
@@ -2692,38 +3136,38 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <f>G17+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F18" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <f ca="1">G17+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H18">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
         <v>22000</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K18" s="2">
         <f>K17+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N18" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N18" s="4">
         <f>'To update'!Q16</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45781</v>
       </c>
       <c r="B19">
@@ -2740,38 +3184,38 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <f>G18+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F19" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f ca="1">G18+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H19">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K19" s="2">
         <f>K18+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N19" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N19" s="4">
         <f>'To update'!Q17</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45788</v>
       </c>
       <c r="B20">
@@ -2788,38 +3232,38 @@
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <f>G19+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F20" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <f ca="1">G19+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H20">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
         <v>26000</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K20" s="2">
         <f>K19+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N20" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N20" s="4">
         <f>'To update'!Q18</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45795</v>
       </c>
       <c r="B21">
@@ -2836,38 +3280,38 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <f>G20+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F21" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <f ca="1">G20+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H21">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="3"/>
         <v>28000</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K21" s="2">
         <f>K20+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N21" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N21" s="4">
         <f>'To update'!Q19</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45802</v>
       </c>
       <c r="B22">
@@ -2884,38 +3328,38 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <f>G21+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F22" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f ca="1">G21+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H22">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K22" s="2">
         <f>K21+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N22" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N22" s="4">
         <f>'To update'!Q20</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45809</v>
       </c>
       <c r="B23">
@@ -2932,38 +3376,38 @@
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="F23" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <f>G22+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F23" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f ca="1">G22+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H23">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
         <v>33000</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K23" s="2">
         <f>K22+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N23" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N23" s="4">
         <f>'To update'!Q21</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45816</v>
       </c>
       <c r="B24">
@@ -2980,38 +3424,38 @@
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <f>G23+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F24" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f ca="1">G23+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H24">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
         <v>36000</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K24" s="2">
         <f>K23+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N24" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N24" s="4">
         <f>'To update'!Q22</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45823</v>
       </c>
       <c r="B25">
@@ -3028,38 +3472,38 @@
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <f>G24+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F25" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f ca="1">G24+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H25">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
         <v>39000</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K25" s="2">
         <f>K24+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N25" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N25" s="4">
         <f>'To update'!Q23</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45830</v>
       </c>
       <c r="B26">
@@ -3076,38 +3520,38 @@
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <f>G25+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F26" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f ca="1">G25+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H26">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
         <v>42000</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K26" s="2">
         <f>K25+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N26" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N26" s="4">
         <f>'To update'!Q24</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45837</v>
       </c>
       <c r="B27">
@@ -3124,38 +3568,38 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <f>G26+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F27" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f ca="1">G26+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H27">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="3"/>
         <v>45000</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K27" s="2">
         <f>K26+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N27" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N27" s="4">
         <f>'To update'!Q25</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45844</v>
       </c>
       <c r="B28">
@@ -3172,38 +3616,38 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <f>G27+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F28" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <f ca="1">G27+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H28">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="3"/>
         <v>48000</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K28" s="2">
         <f>K27+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N28" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N28" s="4">
         <f>'To update'!Q26</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45851</v>
       </c>
       <c r="B29">
@@ -3220,38 +3664,38 @@
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="F29" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <f>G28+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F29" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f ca="1">G28+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H29">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="3"/>
         <v>51000</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K29" s="2">
         <f>K28+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N29" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N29" s="4">
         <f>'To update'!Q27</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45858</v>
       </c>
       <c r="B30">
@@ -3268,38 +3712,38 @@
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <f>G29+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F30" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f ca="1">G29+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="3"/>
         <v>54000</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K30" s="2">
         <f>K29+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N30" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N30" s="4">
         <f>'To update'!Q28</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45865</v>
       </c>
       <c r="B31">
@@ -3316,38 +3760,38 @@
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="F31" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <f>G30+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F31" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <f ca="1">G30+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H31">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="3"/>
         <v>57000</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K31" s="2">
         <f>K30+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N31" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N31" s="4">
         <f>'To update'!Q29</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45872</v>
       </c>
       <c r="B32">
@@ -3364,38 +3808,38 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <f>G31+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F32" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <f ca="1">G31+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H32">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K32" s="2">
         <f>K31+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N32" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N32" s="4">
         <f>'To update'!Q30</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45879</v>
       </c>
       <c r="B33">
@@ -3412,38 +3856,38 @@
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="F33" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <f>G32+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F33" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <f ca="1">G32+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H33">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="3"/>
         <v>63000</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K33" s="2">
         <f>K32+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N33" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N33" s="4">
         <f>'To update'!Q31</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45886</v>
       </c>
       <c r="B34">
@@ -3460,38 +3904,38 @@
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="F34" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <f>G33+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F34" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <f ca="1">G33+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H34">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K34" s="2">
         <f>K33+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N34" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N34" s="4">
         <f>'To update'!Q32</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45893</v>
       </c>
       <c r="B35">
@@ -3505,41 +3949,41 @@
         <v>30</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:E54" si="6">E34+D35</f>
+        <f t="shared" ref="E35:E54" si="5">E34+D35</f>
         <v>690</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="5">
-        <f>G34+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
+      <c r="F35" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <f ca="1">G34+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I54" si="7">I34+H35</f>
+        <f t="shared" ref="I35:I54" si="6">I34+H35</f>
         <v>69000</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K35" s="2">
         <f>K34+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N35" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N35" s="4">
         <f>'To update'!Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45900</v>
       </c>
       <c r="B36">
@@ -3553,41 +3997,41 @@
         <v>30</v>
       </c>
       <c r="E36">
+        <f t="shared" si="5"/>
+        <v>720</v>
+      </c>
+      <c r="F36" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <f ca="1">G35+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="6"/>
-        <v>720</v>
-      </c>
-      <c r="F36" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <f>G35+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="7"/>
         <v>72000</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K36" s="2">
         <f>K35+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N36" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N36" s="4">
         <f>'To update'!Q34</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45907</v>
       </c>
       <c r="B37">
@@ -3601,41 +4045,41 @@
         <v>20</v>
       </c>
       <c r="E37">
+        <f t="shared" si="5"/>
+        <v>740</v>
+      </c>
+      <c r="F37" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <f ca="1">G36+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="6"/>
-        <v>740</v>
-      </c>
-      <c r="F37" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
-        <f>G36+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="7"/>
         <v>74000</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K37" s="2">
         <f>K36+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N37" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N37" s="4">
         <f>'To update'!Q35</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45914</v>
       </c>
       <c r="B38">
@@ -3649,41 +4093,41 @@
         <v>20</v>
       </c>
       <c r="E38">
+        <f t="shared" si="5"/>
+        <v>760</v>
+      </c>
+      <c r="F38" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <f ca="1">G37+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="6"/>
-        <v>760</v>
-      </c>
-      <c r="F38" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="5">
-        <f>G37+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="7"/>
         <v>76000</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K38" s="2">
         <f>K37+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N38" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N38" s="4">
         <f>'To update'!Q36</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45921</v>
       </c>
       <c r="B39">
@@ -3697,41 +4141,41 @@
         <v>20</v>
       </c>
       <c r="E39">
+        <f t="shared" si="5"/>
+        <v>780</v>
+      </c>
+      <c r="F39" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <f ca="1">G38+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="6"/>
-        <v>780</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
-        <f>G38+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="7"/>
         <v>78000</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K39" s="2">
         <f>K38+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N39" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N39" s="4">
         <f>'To update'!Q37</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45928</v>
       </c>
       <c r="B40">
@@ -3745,41 +4189,41 @@
         <v>20</v>
       </c>
       <c r="E40">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="F40" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <f ca="1">G39+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="6"/>
-        <v>800</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="5">
-        <f>G39+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="7"/>
         <v>80000</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K40" s="2">
         <f>K39+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N40" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N40" s="4">
         <f>'To update'!Q38</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45935</v>
       </c>
       <c r="B41">
@@ -3793,41 +4237,41 @@
         <v>20</v>
       </c>
       <c r="E41">
+        <f t="shared" si="5"/>
+        <v>820</v>
+      </c>
+      <c r="F41" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <f ca="1">G40+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="6"/>
-        <v>820</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="5">
-        <f>G40+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="7"/>
         <v>82000</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K41" s="2">
         <f>K40+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N41" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N41" s="4">
         <f>'To update'!Q39</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45942</v>
       </c>
       <c r="B42">
@@ -3841,41 +4285,41 @@
         <v>20</v>
       </c>
       <c r="E42">
+        <f t="shared" si="5"/>
+        <v>840</v>
+      </c>
+      <c r="F42" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <f ca="1">G41+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="6"/>
-        <v>840</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="5">
-        <f>G41+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="7"/>
         <v>84000</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K42" s="2">
         <f>K41+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N42" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N42" s="4">
         <f>'To update'!Q40</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45949</v>
       </c>
       <c r="B43">
@@ -3889,41 +4333,41 @@
         <v>20</v>
       </c>
       <c r="E43">
+        <f t="shared" si="5"/>
+        <v>860</v>
+      </c>
+      <c r="F43" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <f ca="1">G42+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="6"/>
-        <v>860</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="5">
-        <f>G42+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="7"/>
         <v>86000</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K43" s="2">
         <f>K42+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N43" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N43" s="4">
         <f>'To update'!Q41</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45956</v>
       </c>
       <c r="B44">
@@ -3937,41 +4381,41 @@
         <v>20</v>
       </c>
       <c r="E44">
+        <f t="shared" si="5"/>
+        <v>880</v>
+      </c>
+      <c r="F44" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <f ca="1">G43+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="6"/>
-        <v>880</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="5">
-        <f>G43+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="7"/>
         <v>88000</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K44" s="2">
         <f>K43+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N44" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N44" s="4">
         <f>'To update'!Q42</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45963</v>
       </c>
       <c r="B45">
@@ -3985,41 +4429,41 @@
         <v>20</v>
       </c>
       <c r="E45">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="F45" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <f ca="1">G44+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="6"/>
-        <v>900</v>
-      </c>
-      <c r="F45" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="5">
-        <f>G44+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="7"/>
         <v>90000</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K45" s="2">
         <f>K44+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N45" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N45" s="4">
         <f>'To update'!Q43</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45970</v>
       </c>
       <c r="B46">
@@ -4033,41 +4477,41 @@
         <v>20</v>
       </c>
       <c r="E46">
+        <f t="shared" si="5"/>
+        <v>920</v>
+      </c>
+      <c r="F46" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <f ca="1">G45+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="6"/>
-        <v>920</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="5">
-        <f>G45+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="7"/>
         <v>92000</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K46" s="2">
         <f>K45+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N46" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N46" s="4">
         <f>'To update'!Q44</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45977</v>
       </c>
       <c r="B47">
@@ -4081,41 +4525,41 @@
         <v>20</v>
       </c>
       <c r="E47">
+        <f t="shared" si="5"/>
+        <v>940</v>
+      </c>
+      <c r="F47" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <f ca="1">G46+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="6"/>
-        <v>940</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="5">
-        <f>G46+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="7"/>
         <v>94000</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K47" s="2">
         <f>K46+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N47" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N47" s="4">
         <f>'To update'!Q45</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45984</v>
       </c>
       <c r="B48">
@@ -4129,41 +4573,41 @@
         <v>20</v>
       </c>
       <c r="E48">
+        <f t="shared" si="5"/>
+        <v>960</v>
+      </c>
+      <c r="F48" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <f ca="1">G47+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="6"/>
-        <v>960</v>
-      </c>
-      <c r="F48" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="5">
-        <f>G47+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="7"/>
         <v>96000</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K48" s="2">
         <f>K47+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N48" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N48" s="4">
         <f>'To update'!Q46</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45991</v>
       </c>
       <c r="B49">
@@ -4177,41 +4621,41 @@
         <v>20</v>
       </c>
       <c r="E49">
+        <f t="shared" si="5"/>
+        <v>980</v>
+      </c>
+      <c r="F49" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <f ca="1">G48+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="6"/>
-        <v>980</v>
-      </c>
-      <c r="F49" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
-        <f>G48+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="7"/>
         <v>98000</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K49" s="2">
         <f>K48+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N49" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N49" s="4">
         <f>'To update'!Q47</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45998</v>
       </c>
       <c r="B50">
@@ -4225,41 +4669,41 @@
         <v>10</v>
       </c>
       <c r="E50">
+        <f t="shared" si="5"/>
+        <v>990</v>
+      </c>
+      <c r="F50" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <f ca="1">G49+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="6"/>
-        <v>990</v>
-      </c>
-      <c r="F50" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="5">
-        <f>G49+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="7"/>
         <v>99000</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K50" s="2">
         <f>K49+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N50" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N50" s="4">
         <f>'To update'!Q48</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>46005</v>
       </c>
       <c r="B51">
@@ -4273,41 +4717,41 @@
         <v>10</v>
       </c>
       <c r="E51">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="F51" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <f ca="1">G50+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="F51" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="5">
-        <f>G50+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="7"/>
         <v>100000</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K51" s="2">
         <f>K50+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N51" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N51" s="4">
         <f>'To update'!Q49</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>46012</v>
       </c>
       <c r="B52">
@@ -4321,41 +4765,41 @@
         <v>10</v>
       </c>
       <c r="E52">
+        <f t="shared" si="5"/>
+        <v>1010</v>
+      </c>
+      <c r="F52" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <f ca="1">G51+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="6"/>
-        <v>1010</v>
-      </c>
-      <c r="F52" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="5">
-        <f>G51+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="7"/>
         <v>101000</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K52" s="2">
         <f>K51+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N52" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N52" s="4">
         <f>'To update'!Q50</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>46019</v>
       </c>
       <c r="B53">
@@ -4369,34 +4813,34 @@
         <v>10</v>
       </c>
       <c r="E53">
+        <f t="shared" si="5"/>
+        <v>1020</v>
+      </c>
+      <c r="F53" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <f ca="1">G52+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="6"/>
-        <v>1020</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="5">
-        <f>G52+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="7"/>
         <v>102000</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K53" s="2">
         <f>K52+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N53" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N53" s="4">
         <f>'To update'!Q51</f>
         <v>0</v>
       </c>
@@ -4417,34 +4861,34 @@
         <v>10</v>
       </c>
       <c r="E54">
+        <f t="shared" si="5"/>
+        <v>1030</v>
+      </c>
+      <c r="F54" s="4">
+        <f ca="1">SUMIFS('To update'!G:G, 'To update'!A:A, "&gt;="&amp;DATE(YEAR(TODAY()),1,1)+((Table2[[#This Row],[Week no]])-1)*7,'To update'!A:A, "&lt;"&amp;DATE(YEAR(TODAY()),1,1)+(Table2[[#This Row],[Week commencing]])*7)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <f ca="1">G53+Table2[[#This Row],[Actual miles (week)]]</f>
+        <v>796.6311258251809</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="6"/>
-        <v>1030</v>
-      </c>
-      <c r="F54" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="5">
-        <f>G53+Table2[[#This Row],[Actual miles (week)]]</f>
-        <v>101.94111101169172</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="7"/>
         <v>103000</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K54" s="2">
         <f>K53+Table2[[#This Row],[Actual ft (week)]]</f>
-        <v>9586.8976377952749</v>
-      </c>
-      <c r="N54" s="5">
+        <v>10498.971128608924</v>
+      </c>
+      <c r="N54" s="4">
         <f>'To update'!Q52</f>
         <v>0</v>
       </c>
@@ -4459,19 +4903,19 @@
         <v>103000</v>
       </c>
       <c r="L55">
-        <f t="shared" ref="L55:O55" si="8">SUM(L2:L54)</f>
+        <f t="shared" ref="L55:O55" si="7">SUM(L2:L54)</f>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N55">
-        <f t="shared" si="8"/>
-        <v>101.94111101169172</v>
+        <f t="shared" si="7"/>
+        <v>129.4806550743657</v>
       </c>
       <c r="O55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9586.8976377952749</v>
       </c>
     </row>
